--- a/Team 8.xlsx
+++ b/Team 8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Days</t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>user stories</t>
+  </si>
+  <si>
+    <t>page designing</t>
+  </si>
+  <si>
+    <t>Day-1</t>
+  </si>
+  <si>
+    <t>Day-3</t>
+  </si>
+  <si>
+    <t>back end</t>
   </si>
 </sst>
 </file>
@@ -121,13 +139,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,7 +439,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,90 +464,166 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
+      <c r="A2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Team 8.xlsx
+++ b/Team 8.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>Days</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>back end</t>
+  </si>
+  <si>
+    <t>Day-4</t>
+  </si>
+  <si>
+    <t>Rest API</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,6 +453,7 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="59.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,16 +621,54 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
